--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/30.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/30.xlsx
@@ -479,13 +479,13 @@
         <v>-27.5240513326235</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.346519900473652</v>
+        <v>-9.949725567713619</v>
       </c>
       <c r="F2" t="n">
-        <v>5.689684275812541</v>
+        <v>5.867360563369964</v>
       </c>
       <c r="G2" t="n">
-        <v>-19.28106496716157</v>
+        <v>-18.88244957028139</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-27.96071758761613</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.771433265290964</v>
+        <v>-10.57925364792506</v>
       </c>
       <c r="F3" t="n">
-        <v>5.705759330390957</v>
+        <v>5.718343634066396</v>
       </c>
       <c r="G3" t="n">
-        <v>-18.93634598198226</v>
+        <v>-18.7986617705962</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-28.35794897282822</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.989385191418032</v>
+        <v>-10.97855839477347</v>
       </c>
       <c r="F4" t="n">
-        <v>5.492588852979732</v>
+        <v>5.498294323993421</v>
       </c>
       <c r="G4" t="n">
-        <v>-18.10894512684617</v>
+        <v>-18.01156588807096</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-28.58231494542723</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.47656005868551</v>
+        <v>-11.5698886643337</v>
       </c>
       <c r="F5" t="n">
-        <v>5.699814298040788</v>
+        <v>5.826268460653544</v>
       </c>
       <c r="G5" t="n">
-        <v>-17.55906874651052</v>
+        <v>-17.49442629771617</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-28.62502855414581</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.0599016910252</v>
+        <v>-12.27667283105612</v>
       </c>
       <c r="F6" t="n">
-        <v>5.615048696982217</v>
+        <v>5.859063918716809</v>
       </c>
       <c r="G6" t="n">
-        <v>-17.23964059385376</v>
+        <v>-17.0310706719043</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-28.43124439375807</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.86215349483787</v>
+        <v>-13.05162930953081</v>
       </c>
       <c r="F7" t="n">
-        <v>5.602083050771158</v>
+        <v>5.669346007246174</v>
       </c>
       <c r="G7" t="n">
-        <v>-16.33663124752083</v>
+        <v>-15.98338094535876</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-27.99864200471031</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.77661289525311</v>
+        <v>-14.12742104754738</v>
       </c>
       <c r="F8" t="n">
-        <v>5.830683233854367</v>
+        <v>5.983362029301254</v>
       </c>
       <c r="G8" t="n">
-        <v>-15.90239454660832</v>
+        <v>-15.40909864274347</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-27.30546777467061</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.28576873739424</v>
+        <v>-14.48046112241417</v>
       </c>
       <c r="F9" t="n">
-        <v>5.937434698793456</v>
+        <v>6.172087472377905</v>
       </c>
       <c r="G9" t="n">
-        <v>-15.73878882081388</v>
+        <v>-15.14965371533689</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-26.37916378538671</v>
       </c>
       <c r="E10" t="n">
-        <v>-13.95149991345518</v>
+        <v>-15.0842339144507</v>
       </c>
       <c r="F10" t="n">
-        <v>6.300810134176909</v>
+        <v>6.551332624051365</v>
       </c>
       <c r="G10" t="n">
-        <v>-14.95359965096673</v>
+        <v>-14.27698554562004</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-25.24004961165574</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.36007421732326</v>
+        <v>-15.60395490043123</v>
       </c>
       <c r="F11" t="n">
-        <v>6.110705991163789</v>
+        <v>6.142332976585861</v>
       </c>
       <c r="G11" t="n">
-        <v>-14.27889225829814</v>
+        <v>-13.46862737223059</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-23.95549358697189</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.49089172762695</v>
+        <v>-16.72272100880798</v>
       </c>
       <c r="F12" t="n">
-        <v>6.492136528906759</v>
+        <v>6.57794837743485</v>
       </c>
       <c r="G12" t="n">
-        <v>-13.79270985942465</v>
+        <v>-12.8879746936677</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-22.58781781817269</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.07625251980268</v>
+        <v>-17.5174877431074</v>
       </c>
       <c r="F13" t="n">
-        <v>6.645265112985402</v>
+        <v>6.786928975961129</v>
       </c>
       <c r="G13" t="n">
-        <v>-13.25386796758761</v>
+        <v>-12.49742615811793</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-21.22891424144435</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.24302867561253</v>
+        <v>-18.41163331999061</v>
       </c>
       <c r="F14" t="n">
-        <v>6.720531373701557</v>
+        <v>6.899268575749101</v>
       </c>
       <c r="G14" t="n">
-        <v>-12.6136231843239</v>
+        <v>-11.721486989263</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-19.95640266031846</v>
       </c>
       <c r="E15" t="n">
-        <v>-17.42188321382488</v>
+        <v>-18.50388399056243</v>
       </c>
       <c r="F15" t="n">
-        <v>6.691999129626242</v>
+        <v>6.926231448620137</v>
       </c>
       <c r="G15" t="n">
-        <v>-12.00498583045479</v>
+        <v>-11.22824486447368</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-18.84393756094325</v>
       </c>
       <c r="E16" t="n">
-        <v>-18.58557929530858</v>
+        <v>-19.62663463953571</v>
       </c>
       <c r="F16" t="n">
-        <v>6.674956051688176</v>
+        <v>6.867754037484967</v>
       </c>
       <c r="G16" t="n">
-        <v>-12.00473649110458</v>
+        <v>-11.36953716292752</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-17.9454121577996</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.74126718354427</v>
+        <v>-20.96419358322064</v>
       </c>
       <c r="F17" t="n">
-        <v>7.047087698370275</v>
+        <v>7.111945263466768</v>
       </c>
       <c r="G17" t="n">
-        <v>-11.46515635923064</v>
+        <v>-10.69851119242971</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-17.29057990009018</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.37691141134621</v>
+        <v>-21.33530342746755</v>
       </c>
       <c r="F18" t="n">
-        <v>7.270476200133352</v>
+        <v>7.299859131403511</v>
       </c>
       <c r="G18" t="n">
-        <v>-10.9044899407397</v>
+        <v>-10.50422694854538</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-16.89376322155483</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.02733021789998</v>
+        <v>-22.01463582063225</v>
       </c>
       <c r="F19" t="n">
-        <v>7.200700294128742</v>
+        <v>7.241831508900098</v>
       </c>
       <c r="G19" t="n">
-        <v>-10.16614234568448</v>
+        <v>-9.398739382819171</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-16.73743412678598</v>
       </c>
       <c r="E20" t="n">
-        <v>-21.79196600287861</v>
+        <v>-22.82746254629806</v>
       </c>
       <c r="F20" t="n">
-        <v>7.237499848816011</v>
+        <v>7.376308531781461</v>
       </c>
       <c r="G20" t="n">
-        <v>-9.521345897027665</v>
+        <v>-8.740351495072336</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-16.79955002914138</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.57324885623909</v>
+        <v>-23.68958023919611</v>
       </c>
       <c r="F21" t="n">
-        <v>7.415093023256697</v>
+        <v>7.472949530519768</v>
       </c>
       <c r="G21" t="n">
-        <v>-9.057491592515374</v>
+        <v>-8.501655512808947</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-17.02791097074889</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.01621243440905</v>
+        <v>-24.21171150556203</v>
       </c>
       <c r="F22" t="n">
-        <v>7.301369834525388</v>
+        <v>7.35398043742026</v>
       </c>
       <c r="G22" t="n">
-        <v>-8.371842602478621</v>
+        <v>-7.738623322082664</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-17.37909632045585</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.60396883994956</v>
+        <v>-24.6929755635274</v>
       </c>
       <c r="F23" t="n">
-        <v>7.294823454330588</v>
+        <v>7.416290829939091</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.812017093168791</v>
+        <v>-7.136292787071875</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-17.78834868998983</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.07001341953823</v>
+        <v>-25.23576288390603</v>
       </c>
       <c r="F24" t="n">
-        <v>7.583651313007323</v>
+        <v>7.679172729173107</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.434028416260129</v>
+        <v>-6.740175672700692</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-18.20900739946268</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.30066209649868</v>
+        <v>-25.49132593986028</v>
       </c>
       <c r="F25" t="n">
-        <v>7.300607149454149</v>
+        <v>7.457187372380834</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.109021906768224</v>
+        <v>-6.349519578999853</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-18.57891074794708</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.48267982215392</v>
+        <v>-25.76645480129591</v>
       </c>
       <c r="F26" t="n">
-        <v>7.446167550902808</v>
+        <v>7.482228865553172</v>
       </c>
       <c r="G26" t="n">
-        <v>-6.626061363420031</v>
+        <v>-5.80819407167443</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-18.86053235770114</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.42509221026853</v>
+        <v>-25.82813451192892</v>
       </c>
       <c r="F27" t="n">
-        <v>7.387333242266354</v>
+        <v>7.476909626081969</v>
       </c>
       <c r="G27" t="n">
-        <v>-6.390582347675072</v>
+        <v>-5.572832392094277</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-19.01357649545336</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.30006563766091</v>
+        <v>-25.77249272477655</v>
       </c>
       <c r="F28" t="n">
-        <v>7.152778248819242</v>
+        <v>7.334072401458182</v>
       </c>
       <c r="G28" t="n">
-        <v>-6.298849911831147</v>
+        <v>-5.487587668362749</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-19.02565711970315</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.47868550354365</v>
+        <v>-25.93052498274271</v>
       </c>
       <c r="F29" t="n">
-        <v>6.824686775994313</v>
+        <v>6.998393189975801</v>
       </c>
       <c r="G29" t="n">
-        <v>-5.95869725906554</v>
+        <v>-5.19534239388604</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-18.88695505925561</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.49676016193064</v>
+        <v>-25.87791437984784</v>
       </c>
       <c r="F30" t="n">
-        <v>6.978988721721016</v>
+        <v>7.328010032943207</v>
       </c>
       <c r="G30" t="n">
-        <v>-6.26233391954216</v>
+        <v>-5.538795126286815</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-18.61217042701556</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.33026503307785</v>
+        <v>-25.58713091842434</v>
       </c>
       <c r="F31" t="n">
-        <v>7.166335464861197</v>
+        <v>7.443111921610986</v>
       </c>
       <c r="G31" t="n">
-        <v>-6.335160565831725</v>
+        <v>-5.438355369212915</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-18.21905535844685</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.28521772380609</v>
+        <v>-25.65057067152943</v>
       </c>
       <c r="F32" t="n">
-        <v>7.006152043873596</v>
+        <v>7.100832550858271</v>
       </c>
       <c r="G32" t="n">
-        <v>-6.404467127177111</v>
+        <v>-5.51479499157713</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-17.74015618181136</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.13595634415918</v>
+        <v>-25.32334455291995</v>
       </c>
       <c r="F33" t="n">
-        <v>7.077678214336562</v>
+        <v>7.336521793898506</v>
       </c>
       <c r="G33" t="n">
-        <v>-6.523445998290353</v>
+        <v>-5.637714402225106</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-17.207396848895</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.82023894771441</v>
+        <v>-24.96301496881458</v>
       </c>
       <c r="F34" t="n">
-        <v>7.109226975648763</v>
+        <v>7.07942358978805</v>
       </c>
       <c r="G34" t="n">
-        <v>-6.472394988586027</v>
+        <v>-5.515577232675836</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-16.65519573391378</v>
       </c>
       <c r="E35" t="n">
-        <v>-23.64243554597845</v>
+        <v>-24.81303490515823</v>
       </c>
       <c r="F35" t="n">
-        <v>7.561093435323378</v>
+        <v>7.700034121474234</v>
       </c>
       <c r="G35" t="n">
-        <v>-6.934083463056274</v>
+        <v>-5.938486104677713</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-16.11627633743381</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.24542863235749</v>
+        <v>-24.32453511702982</v>
       </c>
       <c r="F36" t="n">
-        <v>7.636785039636955</v>
+        <v>7.610061728102398</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.138047940537098</v>
+        <v>-5.920166995947383</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-15.61738033776479</v>
       </c>
       <c r="E37" t="n">
-        <v>-22.8524747054292</v>
+        <v>-23.80439367645874</v>
       </c>
       <c r="F37" t="n">
-        <v>7.642392730513306</v>
+        <v>7.67344770213195</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.033320524440913</v>
+        <v>-5.843390032109351</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-15.18610719820209</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.35087237889746</v>
+        <v>-23.25714758181748</v>
       </c>
       <c r="F38" t="n">
-        <v>7.395434326644831</v>
+        <v>7.286766371013913</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.004900727523537</v>
+        <v>-5.899613611078872</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-14.83713880563263</v>
       </c>
       <c r="E39" t="n">
-        <v>-21.9118395622485</v>
+        <v>-22.71716655138046</v>
       </c>
       <c r="F39" t="n">
-        <v>7.45205880417744</v>
+        <v>7.325839313894297</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.077800708916105</v>
+        <v>-6.030829666380003</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-14.58718408798621</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.59415189603637</v>
+        <v>-22.45223615826921</v>
       </c>
       <c r="F40" t="n">
-        <v>7.392334696291208</v>
+        <v>7.297507519100525</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.193865731936666</v>
+        <v>-6.194264276934103</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-14.43354418058675</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.09166954826858</v>
+        <v>-21.90474072427774</v>
       </c>
       <c r="F41" t="n">
-        <v>7.557353345070188</v>
+        <v>7.577637834561018</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.662310813896989</v>
+        <v>-6.580310037159441</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-14.37936504692408</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.75207913129267</v>
+        <v>-21.58388009260898</v>
       </c>
       <c r="F42" t="n">
-        <v>7.560193858059865</v>
+        <v>7.454082853020343</v>
       </c>
       <c r="G42" t="n">
-        <v>-7.647722017406115</v>
+        <v>-6.573739211930307</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-14.40757523649469</v>
       </c>
       <c r="E43" t="n">
-        <v>-20.33410815622637</v>
+        <v>-21.15849249412557</v>
       </c>
       <c r="F43" t="n">
-        <v>7.423824789521007</v>
+        <v>7.174651665541819</v>
       </c>
       <c r="G43" t="n">
-        <v>-7.833655837561757</v>
+        <v>-6.845479991607173</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-14.51005682961978</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.44275420226418</v>
+        <v>-20.32842713024702</v>
       </c>
       <c r="F44" t="n">
-        <v>7.609929724916991</v>
+        <v>7.432395218558709</v>
       </c>
       <c r="G44" t="n">
-        <v>-7.927632327557596</v>
+        <v>-7.011363994601598</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-14.65866087276323</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.67207560479804</v>
+        <v>-19.62228831243103</v>
       </c>
       <c r="F45" t="n">
-        <v>7.745071652732254</v>
+        <v>7.570006094841763</v>
       </c>
       <c r="G45" t="n">
-        <v>-8.086583718814735</v>
+        <v>-7.158640437460543</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-14.83683847921084</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.25779582991627</v>
+        <v>-19.15620462078742</v>
       </c>
       <c r="F46" t="n">
-        <v>7.571257680599694</v>
+        <v>7.318046236948435</v>
       </c>
       <c r="G46" t="n">
-        <v>-8.112363452023978</v>
+        <v>-7.210889253847264</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-15.0139640062625</v>
       </c>
       <c r="E47" t="n">
-        <v>-18.11908492708816</v>
+        <v>-19.10665453619124</v>
       </c>
       <c r="F47" t="n">
-        <v>7.76861222079645</v>
+        <v>7.606272747780539</v>
       </c>
       <c r="G47" t="n">
-        <v>-8.556368388656592</v>
+        <v>-7.739669569552184</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-15.17492380263072</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.23941081053102</v>
+        <v>-18.18693945339407</v>
       </c>
       <c r="F48" t="n">
-        <v>7.770294039158668</v>
+        <v>7.644900791036034</v>
       </c>
       <c r="G48" t="n">
-        <v>-8.521436434592484</v>
+        <v>-7.666578916891805</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-15.29802991757429</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.80050999706746</v>
+        <v>-17.79313483927093</v>
       </c>
       <c r="F49" t="n">
-        <v>7.748528180587162</v>
+        <v>7.617537019601911</v>
       </c>
       <c r="G49" t="n">
-        <v>-8.802216987966277</v>
+        <v>-7.77904074185145</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-15.37721955057801</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.30105883355716</v>
+        <v>-17.51000756260103</v>
       </c>
       <c r="F50" t="n">
-        <v>7.622367358386422</v>
+        <v>7.45480153702978</v>
       </c>
       <c r="G50" t="n">
-        <v>-9.478679534100097</v>
+        <v>-8.626129627640601</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-15.40524464528407</v>
       </c>
       <c r="E51" t="n">
-        <v>-15.733347356171</v>
+        <v>-16.84421771845768</v>
       </c>
       <c r="F51" t="n">
-        <v>7.651065828695213</v>
+        <v>7.583881096330068</v>
       </c>
       <c r="G51" t="n">
-        <v>-9.579754862066697</v>
+        <v>-8.624638480546192</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-15.38645728246306</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.10307614691579</v>
+        <v>-16.18488136337866</v>
       </c>
       <c r="F52" t="n">
-        <v>7.640534907903879</v>
+        <v>7.646181710835165</v>
       </c>
       <c r="G52" t="n">
-        <v>-9.931890470663113</v>
+        <v>-9.108997279858324</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-15.3271729809728</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.00702671800838</v>
+        <v>-16.05274128577969</v>
       </c>
       <c r="F53" t="n">
-        <v>7.736251884344339</v>
+        <v>7.735640758485975</v>
       </c>
       <c r="G53" t="n">
-        <v>-10.41107181170318</v>
+        <v>-9.461660901196366</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-15.23824813153985</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.5670649900547</v>
+        <v>-15.4589958468272</v>
       </c>
       <c r="F54" t="n">
-        <v>7.779030694429845</v>
+        <v>7.876830387795612</v>
       </c>
       <c r="G54" t="n">
-        <v>-10.56728047010798</v>
+        <v>-9.416237138395859</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-15.13674075421251</v>
       </c>
       <c r="E55" t="n">
-        <v>-14.09010325813222</v>
+        <v>-15.04559609318147</v>
       </c>
       <c r="F55" t="n">
-        <v>7.740290204016411</v>
+        <v>7.839615267524655</v>
       </c>
       <c r="G55" t="n">
-        <v>-11.10643036937763</v>
+        <v>-10.21938851947205</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-15.03575301549855</v>
       </c>
       <c r="E56" t="n">
-        <v>-13.85037569541991</v>
+        <v>-14.88323217513123</v>
       </c>
       <c r="F56" t="n">
-        <v>7.629446640329715</v>
+        <v>7.633900525585475</v>
       </c>
       <c r="G56" t="n">
-        <v>-11.49534597663384</v>
+        <v>-10.57318150139635</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-14.95480971723233</v>
       </c>
       <c r="E57" t="n">
-        <v>-13.59551176744763</v>
+        <v>-14.64564110841976</v>
       </c>
       <c r="F57" t="n">
-        <v>7.693311737032225</v>
+        <v>7.818734319196062</v>
       </c>
       <c r="G57" t="n">
-        <v>-12.00804145974661</v>
+        <v>-11.10022133065664</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-14.90209586435087</v>
       </c>
       <c r="E58" t="n">
-        <v>-13.19129356869797</v>
+        <v>-14.06879207719933</v>
       </c>
       <c r="F58" t="n">
-        <v>7.474240228332634</v>
+        <v>7.557338678049587</v>
       </c>
       <c r="G58" t="n">
-        <v>-12.35526850544865</v>
+        <v>-11.60023472995664</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-14.89253282931011</v>
       </c>
       <c r="E59" t="n">
-        <v>-13.06223845443202</v>
+        <v>-13.88028663943169</v>
       </c>
       <c r="F59" t="n">
-        <v>7.662760333120874</v>
+        <v>7.768538885693446</v>
       </c>
       <c r="G59" t="n">
-        <v>-12.25414428741338</v>
+        <v>-11.47270987484003</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-14.92438589953901</v>
       </c>
       <c r="E60" t="n">
-        <v>-12.53239233523011</v>
+        <v>-13.24953630750353</v>
       </c>
       <c r="F60" t="n">
-        <v>7.608096347341898</v>
+        <v>7.558057362059023</v>
       </c>
       <c r="G60" t="n">
-        <v>-12.41517839559582</v>
+        <v>-11.71443215235404</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-15.00367123660645</v>
       </c>
       <c r="E61" t="n">
-        <v>-12.28531659519683</v>
+        <v>-12.92099015703998</v>
       </c>
       <c r="F61" t="n">
-        <v>7.34852919476365</v>
+        <v>7.378137020349686</v>
       </c>
       <c r="G61" t="n">
-        <v>-12.54206767981973</v>
+        <v>-11.73353350218307</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-15.11860764087646</v>
       </c>
       <c r="E62" t="n">
-        <v>-12.20131856821636</v>
+        <v>-12.77755158457156</v>
       </c>
       <c r="F62" t="n">
-        <v>7.492564226069831</v>
+        <v>7.339616535245264</v>
       </c>
       <c r="G62" t="n">
-        <v>-12.94580186688957</v>
+        <v>-12.38987778505954</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-15.26752083667753</v>
       </c>
       <c r="E63" t="n">
-        <v>-12.11931036703073</v>
+        <v>-12.62382165264829</v>
       </c>
       <c r="F63" t="n">
-        <v>7.577148933874327</v>
+        <v>7.422201639241191</v>
       </c>
       <c r="G63" t="n">
-        <v>-12.86572482341637</v>
+        <v>-12.24686944519541</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-15.43121008386287</v>
       </c>
       <c r="E64" t="n">
-        <v>-12.38438743034799</v>
+        <v>-12.92526314904166</v>
       </c>
       <c r="F64" t="n">
-        <v>7.405940802401831</v>
+        <v>7.109852768527729</v>
       </c>
       <c r="G64" t="n">
-        <v>-13.23787113711907</v>
+        <v>-12.67642736653629</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-15.60199454998776</v>
       </c>
       <c r="E65" t="n">
-        <v>-12.31285637087816</v>
+        <v>-12.72300982396426</v>
       </c>
       <c r="F65" t="n">
-        <v>7.622411359448225</v>
+        <v>7.351218148540453</v>
       </c>
       <c r="G65" t="n">
-        <v>-13.35522685795249</v>
+        <v>-12.90627424637056</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-15.75709939196395</v>
       </c>
       <c r="E66" t="n">
-        <v>-12.22171550486513</v>
+        <v>-12.72094177405955</v>
       </c>
       <c r="F66" t="n">
-        <v>7.389337735081789</v>
+        <v>7.076475518647301</v>
       </c>
       <c r="G66" t="n">
-        <v>-13.53501030746956</v>
+        <v>-13.28847235819164</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-15.88654858427021</v>
       </c>
       <c r="E67" t="n">
-        <v>-12.44226349363853</v>
+        <v>-12.73130157961054</v>
       </c>
       <c r="F67" t="n">
-        <v>7.235158014526759</v>
+        <v>6.804837408114639</v>
       </c>
       <c r="G67" t="n">
-        <v>-13.59385439411975</v>
+        <v>-13.22291077610631</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-15.96970735253691</v>
       </c>
       <c r="E68" t="n">
-        <v>-12.37450185846309</v>
+        <v>-12.79709294501862</v>
       </c>
       <c r="F68" t="n">
-        <v>7.370109271074212</v>
+        <v>6.920389085414174</v>
       </c>
       <c r="G68" t="n">
-        <v>-13.63099129028083</v>
+        <v>-13.32846932336987</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-16.0011212724061</v>
       </c>
       <c r="E69" t="n">
-        <v>-12.78193213472431</v>
+        <v>-13.31910687521973</v>
       </c>
       <c r="F69" t="n">
-        <v>7.481402623392664</v>
+        <v>7.123517542720756</v>
       </c>
       <c r="G69" t="n">
-        <v>-13.35408283034564</v>
+        <v>-12.97543902651681</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-15.97132596720932</v>
       </c>
       <c r="E70" t="n">
-        <v>-12.65287702045836</v>
+        <v>-13.0370600690674</v>
       </c>
       <c r="F70" t="n">
-        <v>7.56639800777398</v>
+        <v>6.973987267696162</v>
       </c>
       <c r="G70" t="n">
-        <v>-13.35042096420232</v>
+        <v>-12.98197562869787</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-15.88537169593849</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.93427847770425</v>
+        <v>-13.41240868226793</v>
       </c>
       <c r="F71" t="n">
-        <v>7.431177855848847</v>
+        <v>6.780416818814398</v>
       </c>
       <c r="G71" t="n">
-        <v>-13.31217426348244</v>
+        <v>-13.09919445733903</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-15.74549230458009</v>
       </c>
       <c r="E72" t="n">
-        <v>-12.98106138441376</v>
+        <v>-13.56751731412768</v>
       </c>
       <c r="F72" t="n">
-        <v>7.487645885161714</v>
+        <v>6.863759718874697</v>
       </c>
       <c r="G72" t="n">
-        <v>-13.59925674670769</v>
+        <v>-13.32504701856303</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-15.56321421638156</v>
       </c>
       <c r="E73" t="n">
-        <v>-13.32365854061283</v>
+        <v>-13.79164894493453</v>
       </c>
       <c r="F73" t="n">
-        <v>7.499858624315268</v>
+        <v>6.869240295572509</v>
       </c>
       <c r="G73" t="n">
-        <v>-13.54431897654417</v>
+        <v>-13.48413530201244</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-15.34882118171569</v>
       </c>
       <c r="E74" t="n">
-        <v>-13.54770216929607</v>
+        <v>-14.13502345322543</v>
       </c>
       <c r="F74" t="n">
-        <v>7.436321091072841</v>
+        <v>6.875375999190488</v>
       </c>
       <c r="G74" t="n">
-        <v>-13.48316238964593</v>
+        <v>-13.35370637681688</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-15.11584924876511</v>
       </c>
       <c r="E75" t="n">
-        <v>-14.05173433224067</v>
+        <v>-14.64951320185836</v>
       </c>
       <c r="F75" t="n">
-        <v>7.427696882959603</v>
+        <v>6.821117800981465</v>
       </c>
       <c r="G75" t="n">
-        <v>-13.63075172894435</v>
+        <v>-13.43169092535105</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-14.87741626150519</v>
       </c>
       <c r="E76" t="n">
-        <v>-14.29109521943796</v>
+        <v>-14.74671154737949</v>
       </c>
       <c r="F76" t="n">
-        <v>7.592695975711115</v>
+        <v>6.864409956787997</v>
       </c>
       <c r="G76" t="n">
-        <v>-13.68690197281087</v>
+        <v>-13.60663914707673</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-14.64232796998157</v>
       </c>
       <c r="E77" t="n">
-        <v>-14.72867600104744</v>
+        <v>-15.13304575900998</v>
       </c>
       <c r="F77" t="n">
-        <v>7.561020100220373</v>
+        <v>7.013309549926759</v>
       </c>
       <c r="G77" t="n">
-        <v>-13.39020770208527</v>
+        <v>-13.10357011848492</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-14.42101506227728</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.16226246404666</v>
+        <v>-15.71909101214708</v>
       </c>
       <c r="F78" t="n">
-        <v>7.539156461511531</v>
+        <v>6.868384719370799</v>
       </c>
       <c r="G78" t="n">
-        <v>-13.275932055578</v>
+        <v>-13.02538512066921</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-14.21488679399509</v>
       </c>
       <c r="E79" t="n">
-        <v>-15.27286157739001</v>
+        <v>-15.88402654780932</v>
       </c>
       <c r="F79" t="n">
-        <v>7.741096890149452</v>
+        <v>7.091993226442888</v>
       </c>
       <c r="G79" t="n">
-        <v>-13.22289122007884</v>
+        <v>-13.01622801080748</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-14.03028510395951</v>
       </c>
       <c r="E80" t="n">
-        <v>-15.86230469029961</v>
+        <v>-16.48134585078152</v>
       </c>
       <c r="F80" t="n">
-        <v>7.759220438605106</v>
+        <v>7.06557303333408</v>
       </c>
       <c r="G80" t="n">
-        <v>-13.08214649039409</v>
+        <v>-12.86382299974514</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-13.86272855832502</v>
       </c>
       <c r="E81" t="n">
-        <v>-16.6700370708101</v>
+        <v>-17.42121830889098</v>
       </c>
       <c r="F81" t="n">
-        <v>7.710770380553979</v>
+        <v>7.158884618396018</v>
       </c>
       <c r="G81" t="n">
-        <v>-12.66272836929519</v>
+        <v>-12.40642218429718</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-13.71588244331229</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.47344268024337</v>
+        <v>-18.19899574432788</v>
       </c>
       <c r="F82" t="n">
-        <v>7.716715412904147</v>
+        <v>7.104186409568974</v>
       </c>
       <c r="G82" t="n">
-        <v>-12.62211050024487</v>
+        <v>-12.31401506550562</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-13.57989281285497</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.24666845028717</v>
+        <v>-19.054571946038</v>
       </c>
       <c r="F83" t="n">
-        <v>7.893814797651275</v>
+        <v>7.314883049505541</v>
       </c>
       <c r="G83" t="n">
-        <v>-12.63678729885934</v>
+        <v>-12.21233350068752</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-13.4548783092816</v>
       </c>
       <c r="E84" t="n">
-        <v>-19.39836201991259</v>
+        <v>-20.3044905526266</v>
       </c>
       <c r="F84" t="n">
-        <v>7.57295905498938</v>
+        <v>7.075199487855035</v>
       </c>
       <c r="G84" t="n">
-        <v>-12.35152841519546</v>
+        <v>-11.9801007855022</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-13.32709658633995</v>
       </c>
       <c r="E85" t="n">
-        <v>-20.41198514660946</v>
+        <v>-21.35247850859103</v>
       </c>
       <c r="F85" t="n">
-        <v>8.069139472905711</v>
+        <v>7.553667033892534</v>
       </c>
       <c r="G85" t="n">
-        <v>-12.50657348996593</v>
+        <v>-12.00961083095089</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-13.19487451665597</v>
       </c>
       <c r="E86" t="n">
-        <v>-21.48868623990327</v>
+        <v>-22.58320776322699</v>
       </c>
       <c r="F86" t="n">
-        <v>7.997813751724289</v>
+        <v>7.602889555028633</v>
       </c>
       <c r="G86" t="n">
-        <v>-12.04112536921503</v>
+        <v>-11.30504138433918</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-13.04468670518809</v>
       </c>
       <c r="E87" t="n">
-        <v>-22.45757495376788</v>
+        <v>-23.51621605569531</v>
       </c>
       <c r="F87" t="n">
-        <v>8.116665508658992</v>
+        <v>7.741336451485931</v>
       </c>
       <c r="G87" t="n">
-        <v>-11.86333663449967</v>
+        <v>-11.18746076918988</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-12.87730119803068</v>
       </c>
       <c r="E88" t="n">
-        <v>-23.68669572514463</v>
+        <v>-24.6246174695142</v>
       </c>
       <c r="F88" t="n">
-        <v>8.139462947679416</v>
+        <v>7.93626115526983</v>
       </c>
       <c r="G88" t="n">
-        <v>-11.91234403933362</v>
+        <v>-11.19003238680187</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-12.68343191049112</v>
       </c>
       <c r="E89" t="n">
-        <v>-25.01588957808027</v>
+        <v>-25.96289509720856</v>
       </c>
       <c r="F89" t="n">
-        <v>8.033914178429589</v>
+        <v>7.697232720539491</v>
       </c>
       <c r="G89" t="n">
-        <v>-11.35785243651559</v>
+        <v>-10.56601421732945</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-12.4678576707589</v>
       </c>
       <c r="E90" t="n">
-        <v>-26.69942887071616</v>
+        <v>-27.59214196858736</v>
       </c>
       <c r="F90" t="n">
-        <v>8.132153882413379</v>
+        <v>7.800234317211656</v>
       </c>
       <c r="G90" t="n">
-        <v>-11.50634135307754</v>
+        <v>-10.84554318494531</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-12.22750378240278</v>
       </c>
       <c r="E91" t="n">
-        <v>-28.57232428831454</v>
+        <v>-29.51630351219221</v>
       </c>
       <c r="F91" t="n">
-        <v>8.304022029812906</v>
+        <v>7.987717952544109</v>
       </c>
       <c r="G91" t="n">
-        <v>-11.13134963737829</v>
+        <v>-10.35880343928899</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-11.97185489360265</v>
       </c>
       <c r="E92" t="n">
-        <v>-30.45121118382832</v>
+        <v>-31.18003743801024</v>
       </c>
       <c r="F92" t="n">
-        <v>8.321387782204187</v>
+        <v>8.194073154382856</v>
       </c>
       <c r="G92" t="n">
-        <v>-11.10407875707464</v>
+        <v>-10.58642582099882</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-11.70572145011893</v>
       </c>
       <c r="E93" t="n">
-        <v>-32.08992806150835</v>
+        <v>-32.82764253017431</v>
       </c>
       <c r="F93" t="n">
-        <v>8.242254317056302</v>
+        <v>8.227342846112212</v>
       </c>
       <c r="G93" t="n">
-        <v>-11.18818434220618</v>
+        <v>-10.51426407964316</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-11.44300603123678</v>
       </c>
       <c r="E94" t="n">
-        <v>-34.16292075215582</v>
+        <v>-34.92399978463877</v>
       </c>
       <c r="F94" t="n">
-        <v>8.127983559555899</v>
+        <v>7.970249531008623</v>
       </c>
       <c r="G94" t="n">
-        <v>-10.51893308120106</v>
+        <v>-9.766876710890999</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-11.19521242602757</v>
       </c>
       <c r="E95" t="n">
-        <v>-36.48398654023742</v>
+        <v>-37.32082806763352</v>
       </c>
       <c r="F95" t="n">
-        <v>7.967369905964009</v>
+        <v>7.909410729556733</v>
       </c>
       <c r="G95" t="n">
-        <v>-10.03236445078508</v>
+        <v>-9.26625707473951</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-10.98106763803036</v>
       </c>
       <c r="E96" t="n">
-        <v>-38.37330657640521</v>
+        <v>-39.11440912682994</v>
       </c>
       <c r="F96" t="n">
-        <v>7.682355472643469</v>
+        <v>7.620807765195877</v>
       </c>
       <c r="G96" t="n">
-        <v>-9.410228548956422</v>
+        <v>-8.672829421233374</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-10.81116881572605</v>
       </c>
       <c r="E97" t="n">
-        <v>-40.9994023919205</v>
+        <v>-41.60378142080852</v>
       </c>
       <c r="F97" t="n">
-        <v>7.391322671869756</v>
+        <v>7.385147856196842</v>
       </c>
       <c r="G97" t="n">
-        <v>-8.895606797138086</v>
+        <v>-8.203558097112541</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-10.70692807513579</v>
       </c>
       <c r="E98" t="n">
-        <v>-43.04960986606472</v>
+        <v>-43.47949290636225</v>
       </c>
       <c r="F98" t="n">
-        <v>7.020589281151596</v>
+        <v>7.215342869695152</v>
       </c>
       <c r="G98" t="n">
-        <v>-8.47150989646755</v>
+        <v>-7.773535720119304</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-10.66627660235367</v>
       </c>
       <c r="E99" t="n">
-        <v>-45.76779745942866</v>
+        <v>-46.17495639580876</v>
       </c>
       <c r="F99" t="n">
-        <v>6.68474384343574</v>
+        <v>7.02763434004682</v>
       </c>
       <c r="G99" t="n">
-        <v>-8.203533652078207</v>
+        <v>-7.677804076658242</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-10.71483653148501</v>
       </c>
       <c r="E100" t="n">
-        <v>-48.178141401907</v>
+        <v>-48.51668068240652</v>
       </c>
       <c r="F100" t="n">
-        <v>6.140362706818494</v>
+        <v>6.50319546243972</v>
       </c>
       <c r="G100" t="n">
-        <v>-7.856516833671451</v>
+        <v>-7.467542558332831</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-10.81839493624162</v>
       </c>
       <c r="E101" t="n">
-        <v>-50.31420717014454</v>
+        <v>-50.49416784616053</v>
       </c>
       <c r="F101" t="n">
-        <v>5.921838766887997</v>
+        <v>6.524022631692778</v>
       </c>
       <c r="G101" t="n">
-        <v>-7.537699806873061</v>
+        <v>-7.281144282524831</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-11.03047024167201</v>
       </c>
       <c r="E102" t="n">
-        <v>-52.26042057922261</v>
+        <v>-52.30325561288709</v>
       </c>
       <c r="F102" t="n">
-        <v>5.460419187795431</v>
+        <v>6.109806413900276</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.455574269522623</v>
+        <v>-7.250084421899321</v>
       </c>
     </row>
   </sheetData>
